--- a/Team-Data/2013-14/3-18-2013-14.xlsx
+++ b/Team-Data/2013-14/3-18-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
         <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>0.47</v>
+        <v>0.462</v>
       </c>
       <c r="H2" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I2" t="n">
         <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L2" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P2" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.779</v>
+        <v>0.777</v>
       </c>
       <c r="R2" t="n">
         <v>8.9</v>
@@ -720,31 +787,31 @@
         <v>25.3</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W2" t="n">
         <v>8.4</v>
       </c>
       <c r="X2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y2" t="n">
         <v>4.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.8</v>
+        <v>101.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -756,16 +823,16 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>1</v>
@@ -777,19 +844,19 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -813,10 +880,10 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -947,22 +1014,22 @@
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -980,7 +1047,7 @@
         <v>24</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1117,10 +1184,10 @@
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1138,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
@@ -1153,7 +1220,7 @@
         <v>29</v>
       </c>
       <c r="AS4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1162,7 +1229,7 @@
         <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>6</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1484,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1532,7 +1599,7 @@
         <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="n">
-        <v>0.382</v>
+        <v>0.388</v>
       </c>
       <c r="H7" t="n">
         <v>48.7</v>
@@ -1594,10 +1661,10 @@
         <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>84.90000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
@@ -1615,22 +1682,22 @@
         <v>22.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R7" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S7" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
         <v>44.4</v>
       </c>
       <c r="U7" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V7" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W7" t="n">
         <v>7.1</v>
@@ -1642,7 +1709,7 @@
         <v>5.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA7" t="n">
         <v>19.7</v>
@@ -1654,25 +1721,25 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI7" t="n">
         <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>30</v>
@@ -1681,10 +1748,10 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
         <v>17</v>
@@ -1693,7 +1760,7 @@
         <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
@@ -1702,13 +1769,13 @@
         <v>15</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU7" t="n">
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
         <v>23</v>
@@ -1720,13 +1787,13 @@
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA7" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB7" t="n">
         <v>24</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>23</v>
       </c>
       <c r="BC7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-1.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
         <v>19</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
         <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>0.623</v>
+        <v>0.618</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2322,10 +2389,10 @@
         <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L11" t="n">
         <v>9.199999999999999</v>
@@ -2343,46 +2410,46 @@
         <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R11" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S11" t="n">
         <v>34.2</v>
       </c>
       <c r="T11" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U11" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V11" t="n">
         <v>15.4</v>
       </c>
       <c r="W11" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y11" t="n">
         <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="n">
         <v>103.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,16 +2461,16 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
         <v>6</v>
@@ -2415,13 +2482,13 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>16</v>
@@ -2433,16 +2500,16 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2457,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>6.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2803,7 +2870,7 @@
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
@@ -2815,7 +2882,7 @@
         <v>14</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
@@ -3000,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3134,7 +3201,7 @@
         <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
@@ -3164,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
         <v>26</v>
@@ -3176,13 +3243,13 @@
         <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
       </c>
       <c r="BB15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>1.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3349,7 +3416,7 @@
         <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" t="n">
         <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>0.708</v>
+        <v>0.703</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3417,25 +3484,25 @@
         <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.507</v>
+        <v>0.508</v>
       </c>
       <c r="L17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O17" t="n">
         <v>17.9</v>
       </c>
       <c r="P17" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.764</v>
       </c>
       <c r="R17" t="n">
         <v>7.4</v>
@@ -3447,7 +3514,7 @@
         <v>36.6</v>
       </c>
       <c r="U17" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V17" t="n">
         <v>14.9</v>
@@ -3465,16 +3532,16 @@
         <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="AC17" t="n">
         <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3489,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3510,7 +3577,7 @@
         <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>17</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" t="n">
-        <v>0.191</v>
+        <v>0.194</v>
       </c>
       <c r="H18" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="J18" t="n">
-        <v>83</v>
+        <v>82.7</v>
       </c>
       <c r="K18" t="n">
         <v>0.431</v>
@@ -3608,34 +3675,34 @@
         <v>20.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O18" t="n">
         <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R18" t="n">
         <v>11.9</v>
       </c>
       <c r="S18" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V18" t="n">
         <v>15</v>
       </c>
       <c r="W18" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X18" t="n">
         <v>5</v>
@@ -3644,19 +3711,19 @@
         <v>5.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AA18" t="n">
         <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.8</v>
+        <v>94.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3677,7 +3744,7 @@
         <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
         <v>18</v>
@@ -3686,7 +3753,7 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
@@ -3695,19 +3762,19 @@
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>18</v>
@@ -3728,7 +3795,7 @@
         <v>16</v>
       </c>
       <c r="BB18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>3.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>16</v>
@@ -3856,7 +3923,7 @@
         <v>11</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3877,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4074,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4214,7 +4281,7 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4262,7 +4329,7 @@
         <v>16</v>
       </c>
       <c r="AX21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY21" t="n">
         <v>3</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" t="n">
-        <v>0.279</v>
+        <v>0.284</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
@@ -4506,7 +4573,7 @@
         <v>37.1</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K23" t="n">
         <v>0.444</v>
@@ -4515,13 +4582,13 @@
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P23" t="n">
         <v>20.8</v>
@@ -4533,10 +4600,10 @@
         <v>9.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U23" t="n">
         <v>21</v>
@@ -4560,13 +4627,13 @@
         <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4623,7 +4690,7 @@
         <v>10</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
         <v>24</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4769,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL24" t="n">
         <v>21</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4817,7 +4884,7 @@
         <v>26</v>
       </c>
       <c r="BA24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>2.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
@@ -4957,7 +5024,7 @@
         <v>4</v>
       </c>
       <c r="AM25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN25" t="n">
         <v>10</v>
@@ -4969,7 +5036,7 @@
         <v>7</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -4984,7 +5051,7 @@
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="n">
         <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.647</v>
+        <v>0.642</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J26" t="n">
-        <v>87.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K26" t="n">
         <v>0.449</v>
@@ -5061,28 +5128,28 @@
         <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O26" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P26" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.82</v>
+        <v>0.819</v>
       </c>
       <c r="R26" t="n">
         <v>12.7</v>
       </c>
       <c r="S26" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T26" t="n">
-        <v>46.5</v>
+        <v>46.4</v>
       </c>
       <c r="U26" t="n">
         <v>23.2</v>
@@ -5103,16 +5170,16 @@
         <v>19.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.6</v>
+        <v>107.4</v>
       </c>
       <c r="AC26" t="n">
         <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,22 +5191,22 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
         <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>7</v>
@@ -5166,7 +5233,7 @@
         <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5181,10 +5248,10 @@
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" t="n">
         <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>0.353</v>
+        <v>0.343</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,7 +5301,7 @@
         <v>37</v>
       </c>
       <c r="J27" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.448</v>
@@ -5249,10 +5316,10 @@
         <v>0.335</v>
       </c>
       <c r="O27" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="P27" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.766</v>
@@ -5261,16 +5328,16 @@
         <v>12.2</v>
       </c>
       <c r="S27" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T27" t="n">
-        <v>44.4</v>
+        <v>44.2</v>
       </c>
       <c r="U27" t="n">
         <v>19</v>
       </c>
       <c r="V27" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W27" t="n">
         <v>7.3</v>
@@ -5279,22 +5346,22 @@
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5342,7 +5409,7 @@
         <v>14</v>
       </c>
       <c r="AT27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="n">
         <v>37</v>
       </c>
       <c r="F29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="H29" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J29" t="n">
         <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L29" t="n">
         <v>8.4</v>
@@ -5610,25 +5677,25 @@
         <v>22.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O29" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P29" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R29" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S29" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U29" t="n">
         <v>21.4</v>
@@ -5637,7 +5704,7 @@
         <v>14.2</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X29" t="n">
         <v>4.3</v>
@@ -5646,19 +5713,19 @@
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
         <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5667,16 +5734,16 @@
         <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI29" t="n">
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
         <v>21</v>
@@ -5688,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>7</v>
@@ -5703,19 +5770,19 @@
         <v>13</v>
       </c>
       <c r="AS29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
         <v>17</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
@@ -5879,7 +5946,7 @@
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR30" t="n">
         <v>20</v>
@@ -5912,7 +5979,7 @@
         <v>17</v>
       </c>
       <c r="BB30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" t="n">
         <v>35</v>
       </c>
       <c r="F31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="n">
-        <v>0.522</v>
+        <v>0.53</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J31" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K31" t="n">
         <v>0.455</v>
@@ -5971,19 +6038,19 @@
         <v>8.1</v>
       </c>
       <c r="M31" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N31" t="n">
         <v>0.386</v>
       </c>
       <c r="O31" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P31" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="R31" t="n">
         <v>11</v>
@@ -5995,7 +6062,7 @@
         <v>42.4</v>
       </c>
       <c r="U31" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V31" t="n">
         <v>14.6</v>
@@ -6010,28 +6077,28 @@
         <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
@@ -6058,10 +6125,10 @@
         <v>28</v>
       </c>
       <c r="AP31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>25</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>26</v>
       </c>
       <c r="AR31" t="n">
         <v>17</v>
@@ -6082,7 +6149,7 @@
         <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6091,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-18-2013-14</t>
+          <t>2014-03-18</t>
         </is>
       </c>
     </row>
